--- a/data/pre.xlsx
+++ b/data/pre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Desktop\TAPProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C40B050-9A26-4D46-B052-E38E562C8939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6806A5-3D7D-4817-8386-A6565C67A0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2424" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>Sing or play instruments (without score)</t>
-  </si>
-  <si>
     <t>STEM major(s) - (e.g. MATH, BIOL, CHEM, ITEC, Environ.Sci, Exer.Sci, PharmD, Regents Eng):</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>DESAI</t>
   </si>
   <si>
-    <t>sing or play instruments (can read music)</t>
-  </si>
-  <si>
     <t>Chris</t>
   </si>
   <si>
@@ -672,6 +666,12 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Sing or play instruments (can read music)</t>
+  </si>
+  <si>
+    <t>Sing or play instruments (cannot read music)</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -987,10 +987,10 @@
   <sheetData>
     <row r="1" spans="1:30" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>21</v>
@@ -1079,16 +1079,16 @@
     </row>
     <row r="2" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>48</v>
@@ -1097,10 +1097,10 @@
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
@@ -1127,19 +1127,19 @@
         <v>38</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>42</v>
@@ -1154,7 +1154,7 @@
         <v>44</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>54</v>
@@ -1171,16 +1171,16 @@
     </row>
     <row r="3" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
@@ -1189,10 +1189,10 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
@@ -1246,7 +1246,7 @@
         <v>44</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>54</v>
@@ -1263,28 +1263,28 @@
     </row>
     <row r="4" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>30</v>
@@ -1299,10 +1299,10 @@
         <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>31</v>
@@ -1317,7 +1317,7 @@
         <v>39</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>40</v>
@@ -1335,10 +1335,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>54</v>
@@ -1355,16 +1355,16 @@
     </row>
     <row r="5" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>31</v>
@@ -1430,7 +1430,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>54</v>
@@ -1439,24 +1439,24 @@
         <v>30</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -1465,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>50</v>
@@ -1525,7 +1525,7 @@
         <v>30</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>30</v>
@@ -1534,21 +1534,21 @@
         <v>61</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -1557,10 +1557,10 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
@@ -1617,7 +1617,7 @@
         <v>60</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>30</v>
@@ -1626,15 +1626,15 @@
         <v>45</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
@@ -1688,7 +1688,7 @@
         <v>38</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>38</v>
@@ -1709,7 +1709,7 @@
         <v>60</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>30</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="9" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -1780,7 +1780,7 @@
         <v>38</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>38</v>
@@ -1795,10 +1795,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA9" s="1" t="s">
         <v>54</v>
@@ -1810,7 +1810,7 @@
         <v>45</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
@@ -1907,16 +1907,16 @@
     </row>
     <row r="11" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>48</v>
@@ -1925,10 +1925,10 @@
         <v>31</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
@@ -1999,16 +1999,16 @@
     </row>
     <row r="12" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>48</v>
@@ -2017,10 +2017,10 @@
         <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>30</v>
@@ -2044,7 +2044,7 @@
         <v>38</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>38</v>
@@ -2056,7 +2056,7 @@
         <v>38</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>38</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="13" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -2163,10 +2163,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>54</v>
@@ -2183,10 +2183,10 @@
     </row>
     <row r="14" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>29</v>
@@ -2219,7 +2219,7 @@
         <v>34</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>37</v>
@@ -2275,16 +2275,16 @@
     </row>
     <row r="15" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -2296,7 +2296,7 @@
         <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>30</v>
@@ -2347,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA15" s="1" t="s">
         <v>54</v>
@@ -2367,16 +2367,16 @@
     </row>
     <row r="16" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
@@ -2421,7 +2421,7 @@
         <v>39</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>38</v>
@@ -2430,7 +2430,7 @@
         <v>38</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>43</v>
@@ -2454,21 +2454,21 @@
         <v>45</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>48</v>
@@ -2480,7 +2480,7 @@
         <v>57</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>30</v>
@@ -2510,7 +2510,7 @@
         <v>38</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>38</v>
@@ -2534,7 +2534,7 @@
         <v>44</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA17" s="1" t="s">
         <v>54</v>
@@ -2551,16 +2551,16 @@
     </row>
     <row r="18" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
@@ -2569,7 +2569,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>50</v>
@@ -2623,7 +2623,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>60</v>
@@ -2638,21 +2638,21 @@
         <v>45</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
@@ -2661,10 +2661,10 @@
         <v>31</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>30</v>
@@ -2697,7 +2697,7 @@
         <v>39</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>59</v>
@@ -2706,7 +2706,7 @@
         <v>65</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>38</v>
@@ -2735,16 +2735,16 @@
     </row>
     <row r="20" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>48</v>
@@ -2753,7 +2753,7 @@
         <v>31</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>50</v>
@@ -2795,7 +2795,7 @@
         <v>38</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>38</v>
@@ -2810,7 +2810,7 @@
         <v>44</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>54</v>
@@ -2822,21 +2822,21 @@
         <v>45</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>31</v>
@@ -2845,10 +2845,10 @@
         <v>31</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>30</v>
@@ -2902,7 +2902,7 @@
         <v>44</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>54</v>
@@ -2914,15 +2914,15 @@
         <v>61</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -3006,21 +3006,21 @@
         <v>45</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -3029,10 +3029,10 @@
         <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>30</v>
@@ -3086,10 +3086,10 @@
         <v>44</v>
       </c>
       <c r="Z23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA23" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>30</v>
@@ -3103,16 +3103,16 @@
     </row>
     <row r="24" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>48</v>
@@ -3124,7 +3124,7 @@
         <v>49</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>30</v>
@@ -3190,21 +3190,21 @@
         <v>45</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -3213,10 +3213,10 @@
         <v>31</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>30</v>
@@ -3231,7 +3231,7 @@
         <v>34</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>52</v>
@@ -3273,7 +3273,7 @@
         <v>60</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>30</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="26" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>31</v>
@@ -3338,10 +3338,10 @@
         <v>38</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>59</v>
@@ -3379,16 +3379,16 @@
     </row>
     <row r="27" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>31</v>
@@ -3424,16 +3424,16 @@
         <v>31</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>59</v>
@@ -3451,7 +3451,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>60</v>
@@ -3466,15 +3466,15 @@
         <v>45</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>29</v>
@@ -3546,7 +3546,7 @@
         <v>44</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA28" s="1" t="s">
         <v>30</v>
@@ -3558,21 +3558,21 @@
         <v>42</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>48</v>
@@ -3581,10 +3581,10 @@
         <v>31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>30</v>
@@ -3611,7 +3611,7 @@
         <v>64</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>38</v>
@@ -3638,7 +3638,7 @@
         <v>44</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>54</v>
@@ -3655,16 +3655,16 @@
     </row>
     <row r="30" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -3673,10 +3673,10 @@
         <v>31</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>30</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>53</v>
@@ -3739,24 +3739,24 @@
         <v>30</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>48</v>
@@ -3765,10 +3765,10 @@
         <v>31</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>30</v>
@@ -3813,7 +3813,7 @@
         <v>38</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X31" s="3">
         <v>0.1111111111111111</v>
@@ -3822,7 +3822,7 @@
         <v>44</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA31" s="1" t="s">
         <v>54</v>
@@ -3839,16 +3839,16 @@
     </row>
     <row r="32" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>48</v>
@@ -3860,7 +3860,7 @@
         <v>49</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>30</v>
@@ -3893,7 +3893,7 @@
         <v>39</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>38</v>
@@ -3926,21 +3926,21 @@
         <v>45</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>48</v>
@@ -3949,10 +3949,10 @@
         <v>31</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>30</v>
@@ -3985,7 +3985,7 @@
         <v>39</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>59</v>
@@ -4003,7 +4003,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>60</v>
@@ -4018,21 +4018,21 @@
         <v>45</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>48</v>
@@ -4041,7 +4041,7 @@
         <v>31</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>50</v>
@@ -4059,7 +4059,7 @@
         <v>51</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>37</v>
@@ -4071,22 +4071,22 @@
         <v>64</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W34" s="1" t="s">
         <v>43</v>
@@ -4095,10 +4095,10 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>54</v>
@@ -4115,16 +4115,16 @@
     </row>
     <row r="35" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>48</v>
@@ -4136,7 +4136,7 @@
         <v>49</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>30</v>
@@ -4151,10 +4151,10 @@
         <v>51</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>31</v>
@@ -4163,22 +4163,22 @@
         <v>64</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W35" s="1" t="s">
         <v>43</v>
@@ -4187,10 +4187,10 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA35" s="1" t="s">
         <v>54</v>
@@ -4279,13 +4279,13 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="Y36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="AA36" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>30</v>
@@ -4299,16 +4299,16 @@
     </row>
     <row r="37" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>48</v>
@@ -4317,10 +4317,10 @@
         <v>31</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>30</v>
@@ -4356,7 +4356,7 @@
         <v>38</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>41</v>
@@ -4374,7 +4374,7 @@
         <v>44</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA37" s="1" t="s">
         <v>54</v>
@@ -4386,21 +4386,21 @@
         <v>45</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>48</v>
@@ -4483,16 +4483,16 @@
     </row>
     <row r="39" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>48</v>
@@ -4570,21 +4570,21 @@
         <v>45</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>48</v>
@@ -4593,10 +4593,10 @@
         <v>31</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>30</v>
@@ -4629,10 +4629,10 @@
         <v>39</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>65</v>
@@ -4650,7 +4650,7 @@
         <v>44</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA40" s="1" t="s">
         <v>54</v>
@@ -4662,15 +4662,15 @@
         <v>45</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>29</v>
@@ -4685,10 +4685,10 @@
         <v>31</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>30</v>
@@ -4712,7 +4712,7 @@
         <v>38</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>38</v>
@@ -4721,7 +4721,7 @@
         <v>39</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>59</v>
@@ -4759,10 +4759,10 @@
     </row>
     <row r="42" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>29</v>
@@ -4777,10 +4777,10 @@
         <v>31</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>30</v>
@@ -4810,7 +4810,7 @@
         <v>38</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>38</v>
@@ -4831,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="Y42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z42" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="AA42" s="1" t="s">
         <v>54</v>
@@ -4846,21 +4846,21 @@
         <v>45</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>48</v>
@@ -4869,7 +4869,7 @@
         <v>31</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>50</v>
@@ -4917,7 +4917,7 @@
         <v>61</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="X43" s="3">
         <v>0.1111111111111111</v>
@@ -4938,21 +4938,21 @@
         <v>42</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>31</v>
@@ -4961,10 +4961,10 @@
         <v>31</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>30</v>
@@ -4979,10 +4979,10 @@
         <v>51</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>31</v>
@@ -4991,13 +4991,13 @@
         <v>64</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>39</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>59</v>
@@ -5006,7 +5006,7 @@
         <v>65</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>43</v>
@@ -5127,16 +5127,16 @@
     </row>
     <row r="46" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>48</v>
@@ -5199,10 +5199,10 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA46" s="1" t="s">
         <v>54</v>
@@ -5219,16 +5219,16 @@
     </row>
     <row r="47" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>48</v>
@@ -5240,7 +5240,7 @@
         <v>49</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>30</v>
@@ -5255,7 +5255,7 @@
         <v>35</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>37</v>
@@ -5273,7 +5273,7 @@
         <v>39</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>59</v>
@@ -5282,7 +5282,7 @@
         <v>38</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>43</v>
@@ -5291,7 +5291,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>53</v>
@@ -5306,21 +5306,21 @@
         <v>42</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5329,10 +5329,10 @@
         <v>31</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>30</v>
@@ -5347,7 +5347,7 @@
         <v>34</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>52</v>
@@ -5368,13 +5368,13 @@
         <v>38</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>38</v>
@@ -5386,10 +5386,10 @@
         <v>44</v>
       </c>
       <c r="Z48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA48" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AA48" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AB48" s="1" t="s">
         <v>30</v>
@@ -5398,21 +5398,21 @@
         <v>61</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>48</v>
@@ -5421,7 +5421,7 @@
         <v>31</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>50</v>
@@ -5475,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="Y49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z49" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="Z49" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="AA49" s="1" t="s">
         <v>54</v>
@@ -5495,16 +5495,16 @@
     </row>
     <row r="50" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>48</v>
@@ -5513,7 +5513,7 @@
         <v>31</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>50</v>
@@ -5531,7 +5531,7 @@
         <v>51</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>52</v>
@@ -5570,7 +5570,7 @@
         <v>44</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA50" s="1" t="s">
         <v>54</v>
@@ -5587,16 +5587,16 @@
     </row>
     <row r="51" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>48</v>
@@ -5605,10 +5605,10 @@
         <v>31</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>30</v>
@@ -5623,7 +5623,7 @@
         <v>35</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>37</v>
@@ -5635,7 +5635,7 @@
         <v>38</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>39</v>
@@ -5650,7 +5650,7 @@
         <v>41</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W51" s="1" t="s">
         <v>38</v>
@@ -5674,21 +5674,21 @@
         <v>42</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>48</v>
@@ -5697,7 +5697,7 @@
         <v>48</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>30</v>
@@ -5715,16 +5715,16 @@
         <v>51</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>48</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>58</v>
@@ -5733,7 +5733,7 @@
         <v>39</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>59</v>
@@ -5742,7 +5742,7 @@
         <v>65</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W52" s="1" t="s">
         <v>43</v>
@@ -5760,27 +5760,27 @@
         <v>30</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AC52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>
@@ -5789,10 +5789,10 @@
         <v>31</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>30</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>27</v>
@@ -5872,7 +5872,7 @@
         <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>48</v>
@@ -5899,7 +5899,7 @@
         <v>34</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>37</v>
@@ -5911,13 +5911,13 @@
         <v>38</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>39</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>59</v>
@@ -5938,7 +5938,7 @@
         <v>44</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA54" s="1" t="s">
         <v>54</v>
@@ -5950,21 +5950,21 @@
         <v>45</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>48</v>
@@ -5973,7 +5973,7 @@
         <v>31</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>50</v>
@@ -6047,16 +6047,16 @@
     </row>
     <row r="56" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>48</v>
@@ -6083,7 +6083,7 @@
         <v>51</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>37</v>
@@ -6119,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="Z56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB56" s="1" t="s">
         <v>30</v>
